--- a/simulacion_peluqueria.xlsx
+++ b/simulacion_peluqueria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
   <si>
     <t>nro_fila</t>
   </si>
@@ -181,33 +181,33 @@
     <t>Llegada cliente 3</t>
   </si>
   <si>
+    <t>Llegada cliente 4</t>
+  </si>
+  <si>
+    <t>Fin servicio Peluquero A</t>
+  </si>
+  <si>
     <t>Fin servicio Peluquero B</t>
   </si>
   <si>
-    <t>Llegada cliente 4</t>
-  </si>
-  <si>
     <t>Llegada cliente 5</t>
   </si>
   <si>
     <t>Llegada cliente 6</t>
   </si>
   <si>
-    <t>Paga refrigerio 3</t>
-  </si>
-  <si>
     <t>Llegada cliente 7</t>
   </si>
   <si>
     <t>Peluquero B</t>
   </si>
   <si>
+    <t>Peluquero A</t>
+  </si>
+  <si>
     <t>Colorista</t>
   </si>
   <si>
-    <t>Peluquero A</t>
-  </si>
-  <si>
     <t>Libre</t>
   </si>
   <si>
@@ -217,19 +217,22 @@
     <t>SAPB</t>
   </si>
   <si>
+    <t>SAPA</t>
+  </si>
+  <si>
+    <t>EAPA (50.1)</t>
+  </si>
+  <si>
+    <t>EAPB (59.3)</t>
+  </si>
+  <si>
     <t>SAC</t>
   </si>
   <si>
-    <t>EAC (60.4)</t>
-  </si>
-  <si>
-    <t>EAC (68.59)</t>
-  </si>
-  <si>
-    <t>SAPA</t>
-  </si>
-  <si>
-    <t>EAPA (92.9)</t>
+    <t>EAPB (71.4)</t>
+  </si>
+  <si>
+    <t>EAC (80.3)</t>
   </si>
 </sst>
 </file>
@@ -726,16 +729,16 @@
         <v>51</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
+        <v>0.44</v>
       </c>
       <c r="F2">
-        <v>11.6</v>
+        <v>6.4</v>
       </c>
       <c r="G2">
-        <v>11.6</v>
+        <v>6.4</v>
       </c>
       <c r="H2">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="I2" t="s">
         <v>61</v>
@@ -791,7 +794,7 @@
         <v>41</v>
       </c>
       <c r="B3">
-        <v>11.6</v>
+        <v>6.4</v>
       </c>
       <c r="C3" t="s">
         <v>52</v>
@@ -800,16 +803,16 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <v>0.55</v>
+        <v>0.11</v>
       </c>
       <c r="F3">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="G3">
-        <v>19.1</v>
+        <v>9.5</v>
       </c>
       <c r="H3">
-        <v>0.89</v>
+        <v>0.62</v>
       </c>
       <c r="I3" t="s">
         <v>61</v>
@@ -827,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.06</v>
+        <v>0.54</v>
       </c>
       <c r="R3">
-        <v>22.96</v>
+        <v>30.64</v>
       </c>
       <c r="S3">
-        <v>34.56</v>
+        <v>37.04</v>
       </c>
       <c r="T3" t="s">
         <v>65</v>
@@ -877,7 +880,7 @@
         <v>42</v>
       </c>
       <c r="B4">
-        <v>19.1</v>
+        <v>9.5</v>
       </c>
       <c r="C4" t="s">
         <v>53</v>
@@ -886,13 +889,13 @@
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="F4">
-        <v>11.3</v>
+        <v>10.6</v>
       </c>
       <c r="G4">
-        <v>30.4</v>
+        <v>20.1</v>
       </c>
       <c r="I4" t="s">
         <v>62</v>
@@ -903,32 +906,32 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0.31</v>
+      </c>
+      <c r="M4">
+        <v>22.24</v>
+      </c>
+      <c r="N4">
+        <v>31.74</v>
+      </c>
       <c r="O4" t="s">
+        <v>65</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>37.04</v>
+      </c>
+      <c r="T4" t="s">
+        <v>65</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="Y4" t="s">
         <v>64</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>34.56</v>
-      </c>
-      <c r="T4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0.72</v>
-      </c>
-      <c r="W4">
-        <v>44.4</v>
-      </c>
-      <c r="X4">
-        <v>63.5</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>65</v>
       </c>
       <c r="Z4">
         <v>0</v>
@@ -966,7 +969,7 @@
         <v>43</v>
       </c>
       <c r="B5">
-        <v>30.4</v>
+        <v>20.1</v>
       </c>
       <c r="C5" t="s">
         <v>54</v>
@@ -975,13 +978,13 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.62</v>
+        <v>0.72</v>
       </c>
       <c r="F5">
-        <v>8.19</v>
+        <v>9.19</v>
       </c>
       <c r="G5">
-        <v>38.6</v>
+        <v>29.3</v>
       </c>
       <c r="I5" t="s">
         <v>62</v>
@@ -992,29 +995,29 @@
       <c r="K5" t="b">
         <v>0</v>
       </c>
+      <c r="N5">
+        <v>31.74</v>
+      </c>
       <c r="O5" t="s">
+        <v>65</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>37.04</v>
+      </c>
+      <c r="T5" t="s">
+        <v>65</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="s">
         <v>64</v>
       </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>34.56</v>
-      </c>
-      <c r="T5" t="s">
-        <v>65</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>63.5</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>65</v>
-      </c>
       <c r="Z5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5">
         <v>0</v>
@@ -1052,16 +1055,25 @@
         <v>44</v>
       </c>
       <c r="B6">
-        <v>34.56</v>
+        <v>29.3</v>
       </c>
       <c r="C6" t="s">
         <v>55</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>0.6</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>38.6</v>
+        <v>37.29</v>
+      </c>
+      <c r="I6" t="s">
+        <v>61</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -1069,56 +1081,62 @@
       <c r="K6" t="b">
         <v>0</v>
       </c>
+      <c r="N6">
+        <v>31.74</v>
+      </c>
       <c r="O6" t="s">
+        <v>65</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="S6">
+        <v>37.04</v>
+      </c>
+      <c r="T6" t="s">
+        <v>65</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="Y6" t="s">
         <v>64</v>
       </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>34.56</v>
-      </c>
-      <c r="T6" t="s">
-        <v>64</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>63.5</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>65</v>
-      </c>
       <c r="Z6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA6">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="AD6">
         <v>1</v>
       </c>
       <c r="AE6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG6" t="b">
         <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>66</v>
       </c>
       <c r="AI6" t="s">
         <v>67</v>
       </c>
       <c r="AJ6" t="s">
         <v>68</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:40">
@@ -1126,25 +1144,16 @@
         <v>45</v>
       </c>
       <c r="B7">
-        <v>38.6</v>
+        <v>31.74</v>
       </c>
       <c r="C7" t="s">
         <v>56</v>
       </c>
       <c r="D7">
-        <v>4</v>
-      </c>
-      <c r="E7">
-        <v>0.66</v>
-      </c>
-      <c r="F7">
-        <v>8.6</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>47.2</v>
-      </c>
-      <c r="I7" t="s">
-        <v>62</v>
+        <v>37.29</v>
       </c>
       <c r="J7" t="b">
         <v>1</v>
@@ -1152,26 +1161,35 @@
       <c r="K7" t="b">
         <v>0</v>
       </c>
+      <c r="L7">
+        <v>0.38</v>
+      </c>
+      <c r="M7">
+        <v>22.52</v>
+      </c>
+      <c r="N7">
+        <v>54.26</v>
+      </c>
       <c r="O7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>37.04</v>
+      </c>
+      <c r="T7" t="s">
+        <v>65</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="Y7" t="s">
         <v>64</v>
       </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="T7" t="s">
-        <v>64</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>63.5</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>65</v>
-      </c>
       <c r="Z7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>18000</v>
@@ -1186,7 +1204,7 @@
         <v>1</v>
       </c>
       <c r="AE7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF7">
         <v>2</v>
@@ -1194,11 +1212,11 @@
       <c r="AG7" t="b">
         <v>0</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AH7" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>67</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>68</v>
       </c>
       <c r="AK7" t="s">
         <v>69</v>
@@ -1209,25 +1227,16 @@
         <v>46</v>
       </c>
       <c r="B8">
-        <v>47.2</v>
+        <v>37.04</v>
       </c>
       <c r="C8" t="s">
         <v>57</v>
       </c>
       <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>0.27</v>
-      </c>
-      <c r="F8">
-        <v>4.7</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>51.9</v>
-      </c>
-      <c r="I8" t="s">
-        <v>63</v>
+        <v>37.29</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1235,14 +1244,8 @@
       <c r="K8" t="b">
         <v>0</v>
       </c>
-      <c r="L8">
-        <v>0.03</v>
-      </c>
-      <c r="M8">
-        <v>21.12</v>
-      </c>
       <c r="N8">
-        <v>68.31999999999999</v>
+        <v>54.26</v>
       </c>
       <c r="O8" t="s">
         <v>65</v>
@@ -1250,35 +1253,41 @@
       <c r="P8">
         <v>0</v>
       </c>
+      <c r="Q8">
+        <v>0.6</v>
+      </c>
+      <c r="R8">
+        <v>31.6</v>
+      </c>
+      <c r="S8">
+        <v>68.64</v>
+      </c>
       <c r="T8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="s">
         <v>64</v>
       </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>63.5</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>65</v>
-      </c>
       <c r="Z8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA8">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="AD8">
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF8">
         <v>2</v>
@@ -1286,17 +1295,11 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>67</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>68</v>
-      </c>
       <c r="AK8" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:40">
@@ -1304,25 +1307,25 @@
         <v>47</v>
       </c>
       <c r="B9">
-        <v>51.9</v>
+        <v>37.29</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9">
-        <v>0.9</v>
+        <v>0.21</v>
       </c>
       <c r="F9">
-        <v>11</v>
+        <v>4.09</v>
       </c>
       <c r="G9">
-        <v>62.9</v>
+        <v>41.4</v>
       </c>
       <c r="I9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1331,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>68.31999999999999</v>
+        <v>54.26</v>
       </c>
       <c r="O9" t="s">
         <v>65</v>
@@ -1339,14 +1342,8 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>0.35</v>
-      </c>
-      <c r="R9">
-        <v>27.6</v>
-      </c>
       <c r="S9">
-        <v>79.5</v>
+        <v>68.64</v>
       </c>
       <c r="T9" t="s">
         <v>65</v>
@@ -1354,29 +1351,35 @@
       <c r="U9">
         <v>0</v>
       </c>
+      <c r="V9">
+        <v>0.43</v>
+      </c>
+      <c r="W9">
+        <v>38.6</v>
+      </c>
       <c r="X9">
-        <v>63.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="Y9" t="s">
         <v>65</v>
       </c>
       <c r="Z9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="AD9">
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>2</v>
@@ -1384,20 +1387,14 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>67</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>68</v>
-      </c>
       <c r="AK9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL9" t="s">
         <v>70</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:40">
@@ -1405,16 +1402,25 @@
         <v>48</v>
       </c>
       <c r="B10">
-        <v>60.4</v>
+        <v>41.4</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="E10">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F10">
+        <v>8.890000000000001</v>
       </c>
       <c r="G10">
-        <v>62.9</v>
+        <v>50.3</v>
+      </c>
+      <c r="I10" t="s">
+        <v>61</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1423,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>68.31999999999999</v>
+        <v>54.26</v>
       </c>
       <c r="O10" t="s">
         <v>65</v>
@@ -1432,37 +1438,37 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>79.5</v>
+        <v>68.64</v>
       </c>
       <c r="T10" t="s">
         <v>65</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>63.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="Y10" t="s">
         <v>65</v>
       </c>
       <c r="Z10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>18000</v>
+        <v>36000</v>
       </c>
       <c r="AB10">
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>11500</v>
+        <v>36000</v>
       </c>
       <c r="AD10">
         <v>1</v>
       </c>
       <c r="AE10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>2</v>
@@ -1470,20 +1476,17 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>67</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>68</v>
-      </c>
       <c r="AK10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL10" t="s">
         <v>70</v>
       </c>
       <c r="AM10" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:40">
@@ -1491,7 +1494,7 @@
         <v>49</v>
       </c>
       <c r="B11">
-        <v>62.9</v>
+        <v>50.3</v>
       </c>
       <c r="C11" t="s">
         <v>60</v>
@@ -1500,13 +1503,13 @@
         <v>7</v>
       </c>
       <c r="E11">
-        <v>0.99</v>
+        <v>0.77</v>
       </c>
       <c r="F11">
-        <v>11.9</v>
+        <v>9.69</v>
       </c>
       <c r="G11">
-        <v>74.8</v>
+        <v>60</v>
       </c>
       <c r="I11" t="s">
         <v>63</v>
@@ -1518,70 +1521,67 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>68.31999999999999</v>
+        <v>54.26</v>
       </c>
       <c r="O11" t="s">
         <v>65</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S11">
-        <v>79.5</v>
+        <v>68.64</v>
       </c>
       <c r="T11" t="s">
         <v>65</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>63.5</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="Y11" t="s">
         <v>65</v>
       </c>
       <c r="Z11">
+        <v>1</v>
+      </c>
+      <c r="AA11">
+        <v>36000</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>36000</v>
+      </c>
+      <c r="AD11">
+        <v>1</v>
+      </c>
+      <c r="AE11">
         <v>2</v>
       </c>
-      <c r="AA11">
-        <v>18000</v>
-      </c>
-      <c r="AB11">
-        <v>6500</v>
-      </c>
-      <c r="AC11">
-        <v>11500</v>
-      </c>
-      <c r="AD11">
-        <v>1</v>
-      </c>
-      <c r="AE11">
-        <v>3</v>
-      </c>
       <c r="AF11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>67</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>68</v>
-      </c>
       <c r="AK11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL11" t="s">
         <v>70</v>
       </c>
       <c r="AM11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AN11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:40">
@@ -1589,13 +1589,13 @@
         <v>50</v>
       </c>
       <c r="B12">
-        <v>842.46</v>
+        <v>883.92</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D12">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="J12" t="b">
         <v>0</v>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>842.46</v>
+        <v>883.92</v>
       </c>
       <c r="T12" t="s">
         <v>64</v>
@@ -1625,13 +1625,13 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1443000</v>
+        <v>1516000</v>
       </c>
       <c r="AB12">
         <v>344500</v>
       </c>
       <c r="AC12">
-        <v>1098500</v>
+        <v>1171500</v>
       </c>
       <c r="AD12">
         <v>1</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AG12" t="b">
         <v>1</v>

--- a/simulacion_peluqueria.xlsx
+++ b/simulacion_peluqueria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="202">
   <si>
     <t>nro_fila</t>
   </si>
@@ -136,6 +136,72 @@
     <t>cliente_7</t>
   </si>
   <si>
+    <t>cliente_8</t>
+  </si>
+  <si>
+    <t>cliente_9</t>
+  </si>
+  <si>
+    <t>cliente_10</t>
+  </si>
+  <si>
+    <t>cliente_11</t>
+  </si>
+  <si>
+    <t>cliente_12</t>
+  </si>
+  <si>
+    <t>cliente_13</t>
+  </si>
+  <si>
+    <t>cliente_14</t>
+  </si>
+  <si>
+    <t>cliente_15</t>
+  </si>
+  <si>
+    <t>cliente_16</t>
+  </si>
+  <si>
+    <t>cliente_17</t>
+  </si>
+  <si>
+    <t>cliente_18</t>
+  </si>
+  <si>
+    <t>cliente_19</t>
+  </si>
+  <si>
+    <t>cliente_20</t>
+  </si>
+  <si>
+    <t>cliente_21</t>
+  </si>
+  <si>
+    <t>cliente_22</t>
+  </si>
+  <si>
+    <t>cliente_23</t>
+  </si>
+  <si>
+    <t>cliente_24</t>
+  </si>
+  <si>
+    <t>cliente_25</t>
+  </si>
+  <si>
+    <t>cliente_26</t>
+  </si>
+  <si>
+    <t>cliente_27</t>
+  </si>
+  <si>
+    <t>cliente_28</t>
+  </si>
+  <si>
+    <t>cliente_29</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -166,6 +232,156 @@
     <t>10</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
     <t>FINAL</t>
   </si>
   <si>
@@ -184,30 +400,138 @@
     <t>Llegada cliente 4</t>
   </si>
   <si>
+    <t>Llegada cliente 5</t>
+  </si>
+  <si>
+    <t>Fin servicio Peluquero B</t>
+  </si>
+  <si>
+    <t>Llegada cliente 6</t>
+  </si>
+  <si>
     <t>Fin servicio Peluquero A</t>
   </si>
   <si>
-    <t>Fin servicio Peluquero B</t>
-  </si>
-  <si>
-    <t>Llegada cliente 5</t>
-  </si>
-  <si>
-    <t>Llegada cliente 6</t>
-  </si>
-  <si>
     <t>Llegada cliente 7</t>
   </si>
   <si>
+    <t>Fin servicio Colorista</t>
+  </si>
+  <si>
+    <t>Llegada cliente 8</t>
+  </si>
+  <si>
+    <t>Llegada cliente 9</t>
+  </si>
+  <si>
+    <t>Llegada cliente 10</t>
+  </si>
+  <si>
+    <t>Llegada cliente 11</t>
+  </si>
+  <si>
+    <t>Llegada cliente 12</t>
+  </si>
+  <si>
+    <t>Llegada cliente 13</t>
+  </si>
+  <si>
+    <t>Llegada cliente 14</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 10</t>
+  </si>
+  <si>
+    <t>Llegada cliente 15</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 11</t>
+  </si>
+  <si>
+    <t>Llegada cliente 16</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 12</t>
+  </si>
+  <si>
+    <t>Llegada cliente 17</t>
+  </si>
+  <si>
+    <t>Llegada cliente 18</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 13</t>
+  </si>
+  <si>
+    <t>Llegada cliente 19</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 14</t>
+  </si>
+  <si>
+    <t>Llegada cliente 20</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 15</t>
+  </si>
+  <si>
+    <t>Llegada cliente 21</t>
+  </si>
+  <si>
+    <t>Llegada cliente 22</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 17</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 19</t>
+  </si>
+  <si>
+    <t>Llegada cliente 23</t>
+  </si>
+  <si>
+    <t>Llegada cliente 24</t>
+  </si>
+  <si>
+    <t>Llegada cliente 25</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 21</t>
+  </si>
+  <si>
+    <t>Llegada cliente 26</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 22</t>
+  </si>
+  <si>
+    <t>Llegada cliente 27</t>
+  </si>
+  <si>
+    <t>Llegada cliente 28</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 24</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 25</t>
+  </si>
+  <si>
+    <t>Llegada cliente 29</t>
+  </si>
+  <si>
+    <t>Paga refrigerio 26</t>
+  </si>
+  <si>
     <t>Peluquero B</t>
   </si>
   <si>
+    <t>Colorista</t>
+  </si>
+  <si>
     <t>Peluquero A</t>
   </si>
   <si>
-    <t>Colorista</t>
-  </si>
-  <si>
     <t>Libre</t>
   </si>
   <si>
@@ -217,22 +541,85 @@
     <t>SAPB</t>
   </si>
   <si>
+    <t>SAC</t>
+  </si>
+  <si>
     <t>SAPA</t>
   </si>
   <si>
-    <t>EAPA (50.1)</t>
-  </si>
-  <si>
-    <t>EAPB (59.3)</t>
-  </si>
-  <si>
-    <t>SAC</t>
-  </si>
-  <si>
-    <t>EAPB (71.4)</t>
-  </si>
-  <si>
-    <t>EAC (80.3)</t>
+    <t>EAPB (44.5)</t>
+  </si>
+  <si>
+    <t>EAC (50.0)</t>
+  </si>
+  <si>
+    <t>EAPA (60.1)</t>
+  </si>
+  <si>
+    <t>EAPA (65.8)</t>
+  </si>
+  <si>
+    <t>EAPB (74.8)</t>
+  </si>
+  <si>
+    <t>EAC (81.8)</t>
+  </si>
+  <si>
+    <t>EAPB (85.0)</t>
+  </si>
+  <si>
+    <t>EAC (87.0)</t>
+  </si>
+  <si>
+    <t>EAPB (94.1)</t>
+  </si>
+  <si>
+    <t>EAC (100.6)</t>
+  </si>
+  <si>
+    <t>EAC (106.0)</t>
+  </si>
+  <si>
+    <t>EAPB (115.8)</t>
+  </si>
+  <si>
+    <t>EAC (127.7)</t>
+  </si>
+  <si>
+    <t>EAPA (130.0)</t>
+  </si>
+  <si>
+    <t>EAPB (132.2)</t>
+  </si>
+  <si>
+    <t>EAPA (141.9)</t>
+  </si>
+  <si>
+    <t>EAC (148.8)</t>
+  </si>
+  <si>
+    <t>EAC (153.1)</t>
+  </si>
+  <si>
+    <t>EAPA (162.4)</t>
+  </si>
+  <si>
+    <t>EAPA (167.8)</t>
+  </si>
+  <si>
+    <t>EAPB (170.1)</t>
+  </si>
+  <si>
+    <t>EAPA (180.7)</t>
+  </si>
+  <si>
+    <t>EAC (192.2)</t>
+  </si>
+  <si>
+    <t>EAPA (195.4)</t>
+  </si>
+  <si>
+    <t>EAPB (207.3)</t>
   </si>
 </sst>
 </file>
@@ -590,13 +977,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN12"/>
+  <dimension ref="A1:BJ62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:62">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,31 +1104,91 @@
       <c r="AN1" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="2" spans="1:40">
+    <row r="2" spans="1:62">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="E2">
-        <v>0.44</v>
+        <v>0.08</v>
       </c>
       <c r="F2">
-        <v>6.4</v>
+        <v>2.8</v>
       </c>
       <c r="G2">
-        <v>6.4</v>
-      </c>
-      <c r="H2">
-        <v>0.62</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
+        <v>2.8</v>
       </c>
       <c r="J2" t="b">
         <v>1</v>
@@ -750,155 +1197,158 @@
         <v>0</v>
       </c>
       <c r="O2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="T2" t="s">
+        <v>172</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:62">
+      <c r="A3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3">
+        <v>2.8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>0.05</v>
+      </c>
+      <c r="F3">
+        <v>2.5</v>
+      </c>
+      <c r="G3">
+        <v>5.3</v>
+      </c>
+      <c r="H3">
+        <v>0.73</v>
+      </c>
+      <c r="I3" t="s">
+        <v>169</v>
+      </c>
+      <c r="J3" t="b">
+        <v>1</v>
+      </c>
+      <c r="K3" t="b">
+        <v>0</v>
+      </c>
+      <c r="O3" t="s">
+        <v>172</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0.01</v>
+      </c>
+      <c r="R3">
+        <v>22.16</v>
+      </c>
+      <c r="S3">
+        <v>24.96</v>
+      </c>
+      <c r="T3" t="s">
+        <v>173</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:62">
+      <c r="A4" t="s">
         <v>64</v>
       </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="T2" t="s">
-        <v>64</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>1</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3">
-        <v>6.4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>0.11</v>
-      </c>
-      <c r="F3">
-        <v>3.1</v>
-      </c>
-      <c r="G3">
-        <v>9.5</v>
-      </c>
-      <c r="H3">
-        <v>0.62</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0.54</v>
-      </c>
-      <c r="R3">
-        <v>30.64</v>
-      </c>
-      <c r="S3">
-        <v>37.04</v>
-      </c>
-      <c r="T3" t="s">
-        <v>65</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>1</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
       <c r="B4">
-        <v>9.5</v>
+        <v>5.3</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4">
-        <v>0.86</v>
+        <v>0.36</v>
       </c>
       <c r="F4">
-        <v>10.6</v>
+        <v>5.6</v>
       </c>
       <c r="G4">
-        <v>20.1</v>
+        <v>10.89</v>
+      </c>
+      <c r="H4">
+        <v>0.19</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>170</v>
       </c>
       <c r="J4" t="b">
         <v>1</v>
@@ -906,88 +1356,91 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
-      <c r="L4">
-        <v>0.31</v>
-      </c>
-      <c r="M4">
-        <v>22.24</v>
-      </c>
-      <c r="N4">
-        <v>31.74</v>
-      </c>
       <c r="O4" t="s">
+        <v>172</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>24.96</v>
+      </c>
+      <c r="T4" t="s">
+        <v>173</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.16</v>
+      </c>
+      <c r="W4">
+        <v>33.2</v>
+      </c>
+      <c r="X4">
+        <v>38.5</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:62">
+      <c r="A5" t="s">
         <v>65</v>
       </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>37.04</v>
-      </c>
-      <c r="T4" t="s">
-        <v>65</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>1</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>43</v>
-      </c>
       <c r="B5">
-        <v>20.1</v>
+        <v>10.89</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="D5">
         <v>3</v>
       </c>
       <c r="E5">
-        <v>0.72</v>
+        <v>0.16</v>
       </c>
       <c r="F5">
-        <v>9.19</v>
+        <v>3.6</v>
       </c>
       <c r="G5">
-        <v>29.3</v>
+        <v>14.49</v>
+      </c>
+      <c r="H5">
+        <v>0.37</v>
       </c>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>171</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -995,26 +1448,35 @@
       <c r="K5" t="b">
         <v>0</v>
       </c>
+      <c r="L5">
+        <v>0.97</v>
+      </c>
+      <c r="M5">
+        <v>24.88</v>
+      </c>
       <c r="N5">
-        <v>31.74</v>
+        <v>35.78</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>37.04</v>
+        <v>24.96</v>
       </c>
       <c r="T5" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
+      <c r="X5">
+        <v>38.5</v>
+      </c>
       <c r="Y5" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="Z5">
         <v>0</v>
@@ -1032,48 +1494,51 @@
         <v>1</v>
       </c>
       <c r="AE5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
       <c r="AH5" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62">
+      <c r="A6" t="s">
         <v>66</v>
       </c>
-      <c r="AI5" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>44</v>
-      </c>
       <c r="B6">
-        <v>29.3</v>
+        <v>14.49</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="D6">
         <v>4</v>
       </c>
       <c r="E6">
-        <v>0.6</v>
+        <v>0.35</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>5.5</v>
       </c>
       <c r="G6">
-        <v>37.29</v>
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>0.85</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>169</v>
       </c>
       <c r="J6" t="b">
         <v>1</v>
@@ -1082,25 +1547,28 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>31.74</v>
+        <v>35.78</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6">
-        <v>37.04</v>
+        <v>24.96</v>
       </c>
       <c r="T6" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
+      <c r="X6">
+        <v>38.5</v>
+      </c>
       <c r="Y6" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="Z6">
         <v>0</v>
@@ -1118,93 +1586,102 @@
         <v>1</v>
       </c>
       <c r="AE6">
+        <v>1</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6" t="b">
+        <v>0</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>174</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>175</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>176</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:62">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F7">
+        <v>10.1</v>
+      </c>
+      <c r="G7">
+        <v>30.1</v>
+      </c>
+      <c r="H7">
+        <v>0.28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" t="b">
+        <v>1</v>
+      </c>
+      <c r="K7" t="b">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>35.78</v>
+      </c>
+      <c r="O7" t="s">
+        <v>173</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>24.96</v>
+      </c>
+      <c r="T7" t="s">
+        <v>173</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="X7">
+        <v>38.5</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>1</v>
+      </c>
+      <c r="AE7">
         <v>2</v>
-      </c>
-      <c r="AF6">
-        <v>2</v>
-      </c>
-      <c r="AG6" t="b">
-        <v>0</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>68</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7">
-        <v>31.74</v>
-      </c>
-      <c r="C7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="G7">
-        <v>37.29</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="b">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0.38</v>
-      </c>
-      <c r="M7">
-        <v>22.52</v>
-      </c>
-      <c r="N7">
-        <v>54.26</v>
-      </c>
-      <c r="O7" t="s">
-        <v>65</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>37.04</v>
-      </c>
-      <c r="T7" t="s">
-        <v>65</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>18000</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>18000</v>
-      </c>
-      <c r="AD7">
-        <v>1</v>
-      </c>
-      <c r="AE7">
-        <v>1</v>
       </c>
       <c r="AF7">
         <v>2</v>
@@ -1213,30 +1690,36 @@
         <v>0</v>
       </c>
       <c r="AH7" t="s">
-        <v>66</v>
+        <v>174</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>175</v>
       </c>
       <c r="AJ7" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="AK7" t="s">
-        <v>69</v>
+        <v>177</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
+    <row r="8" spans="1:62">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B8">
-        <v>37.04</v>
+        <v>24.96</v>
       </c>
       <c r="C8" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.29</v>
+        <v>30.1</v>
       </c>
       <c r="J8" t="b">
         <v>1</v>
@@ -1245,49 +1728,52 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>54.26</v>
+        <v>35.78</v>
       </c>
       <c r="O8" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.6</v>
+        <v>0.37</v>
       </c>
       <c r="R8">
-        <v>31.6</v>
+        <v>27.92</v>
       </c>
       <c r="S8">
-        <v>68.64</v>
+        <v>52.88</v>
       </c>
       <c r="T8" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="U8">
         <v>0</v>
       </c>
+      <c r="X8">
+        <v>38.5</v>
+      </c>
       <c r="Y8" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="AB8">
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="AD8">
         <v>1</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
         <v>2</v>
@@ -1295,37 +1781,46 @@
       <c r="AG8" t="b">
         <v>0</v>
       </c>
+      <c r="AI8" t="s">
+        <v>175</v>
+      </c>
       <c r="AJ8" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="AK8" t="s">
-        <v>66</v>
+        <v>174</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>178</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
+    <row r="9" spans="1:62">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="B9">
-        <v>37.29</v>
+        <v>30.1</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>0.21</v>
+        <v>0.37</v>
       </c>
       <c r="F9">
-        <v>4.09</v>
+        <v>5.7</v>
       </c>
       <c r="G9">
-        <v>41.4</v>
+        <v>35.8</v>
+      </c>
+      <c r="H9">
+        <v>0.46</v>
       </c>
       <c r="I9" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="J9" t="b">
         <v>1</v>
@@ -1334,52 +1829,46 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>54.26</v>
+        <v>35.78</v>
       </c>
       <c r="O9" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>68.64</v>
+        <v>52.88</v>
       </c>
       <c r="T9" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9">
-        <v>0.43</v>
-      </c>
-      <c r="W9">
-        <v>38.6</v>
-      </c>
       <c r="X9">
-        <v>75.90000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="Y9" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA9">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="AB9">
         <v>0</v>
       </c>
       <c r="AC9">
-        <v>36000</v>
+        <v>18000</v>
       </c>
       <c r="AD9">
         <v>1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF9">
         <v>2</v>
@@ -1387,40 +1876,37 @@
       <c r="AG9" t="b">
         <v>0</v>
       </c>
+      <c r="AI9" t="s">
+        <v>175</v>
+      </c>
       <c r="AJ9" t="s">
-        <v>67</v>
+        <v>176</v>
       </c>
       <c r="AK9" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="AL9" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62">
+      <c r="A10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>48</v>
-      </c>
       <c r="B10">
-        <v>41.4</v>
+        <v>35.78</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="D10">
-        <v>6</v>
-      </c>
-      <c r="E10">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="F10">
-        <v>8.890000000000001</v>
+        <v>3</v>
       </c>
       <c r="G10">
-        <v>50.3</v>
-      </c>
-      <c r="I10" t="s">
-        <v>61</v>
+        <v>35.8</v>
       </c>
       <c r="J10" t="b">
         <v>1</v>
@@ -1428,32 +1914,38 @@
       <c r="K10" t="b">
         <v>0</v>
       </c>
+      <c r="L10">
+        <v>0.96</v>
+      </c>
+      <c r="M10">
+        <v>24.84</v>
+      </c>
       <c r="N10">
-        <v>54.26</v>
+        <v>60.62</v>
       </c>
       <c r="O10" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="S10">
-        <v>68.64</v>
+        <v>52.88</v>
       </c>
       <c r="T10" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="U10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>75.90000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="Y10" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>36000</v>
@@ -1476,43 +1968,46 @@
       <c r="AG10" t="b">
         <v>0</v>
       </c>
-      <c r="AJ10" t="s">
-        <v>67</v>
+      <c r="AI10" t="s">
+        <v>175</v>
       </c>
       <c r="AK10" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="AL10" t="s">
-        <v>70</v>
+        <v>178</v>
       </c>
       <c r="AM10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:62">
+      <c r="A11" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>49</v>
-      </c>
       <c r="B11">
-        <v>50.3</v>
+        <v>35.8</v>
       </c>
       <c r="C11" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="D11">
         <v>7</v>
       </c>
       <c r="E11">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="F11">
-        <v>9.69</v>
+        <v>9</v>
       </c>
       <c r="G11">
-        <v>60</v>
+        <v>44.8</v>
+      </c>
+      <c r="H11">
+        <v>0.36</v>
       </c>
       <c r="I11" t="s">
-        <v>63</v>
+        <v>171</v>
       </c>
       <c r="J11" t="b">
         <v>1</v>
@@ -1521,28 +2016,28 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>54.26</v>
+        <v>60.62</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>68.64</v>
+        <v>52.88</v>
       </c>
       <c r="T11" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="U11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
-        <v>75.90000000000001</v>
+        <v>38.5</v>
       </c>
       <c r="Y11" t="s">
-        <v>65</v>
+        <v>173</v>
       </c>
       <c r="Z11">
         <v>1</v>
@@ -1568,81 +2063,5443 @@
       <c r="AG11" t="b">
         <v>0</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>67</v>
+      <c r="AI11" t="s">
+        <v>175</v>
       </c>
       <c r="AK11" t="s">
-        <v>66</v>
+        <v>174</v>
       </c>
       <c r="AL11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN11" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62">
+      <c r="A12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B12">
+        <v>38.5</v>
+      </c>
+      <c r="C12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>44.8</v>
+      </c>
+      <c r="J12" t="b">
+        <v>1</v>
+      </c>
+      <c r="K12" t="b">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>60.62</v>
+      </c>
+      <c r="O12" t="s">
+        <v>173</v>
+      </c>
+      <c r="P12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>52.88</v>
+      </c>
+      <c r="T12" t="s">
+        <v>173</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0.06</v>
+      </c>
+      <c r="W12">
+        <v>31.2</v>
+      </c>
+      <c r="X12">
+        <v>69.7</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>71000</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>71000</v>
+      </c>
+      <c r="AD12">
+        <v>1</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
+        <v>2</v>
+      </c>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:62">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13">
+        <v>44.8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>134</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>7</v>
+      </c>
+      <c r="G13">
+        <v>51.8</v>
+      </c>
+      <c r="H13">
+        <v>0.75</v>
+      </c>
+      <c r="I13" t="s">
+        <v>169</v>
+      </c>
+      <c r="J13" t="b">
+        <v>1</v>
+      </c>
+      <c r="K13" t="b">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>60.62</v>
+      </c>
+      <c r="O13" t="s">
+        <v>173</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="S13">
+        <v>52.88</v>
+      </c>
+      <c r="T13" t="s">
+        <v>173</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>69.7</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>71000</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>71000</v>
+      </c>
+      <c r="AD13">
+        <v>1</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14">
+        <v>51.8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14">
+        <v>9</v>
+      </c>
+      <c r="E14">
+        <v>0.12</v>
+      </c>
+      <c r="F14">
+        <v>3.2</v>
+      </c>
+      <c r="G14">
+        <v>55</v>
+      </c>
+      <c r="H14">
+        <v>0.13</v>
+      </c>
+      <c r="I14" t="s">
+        <v>170</v>
+      </c>
+      <c r="J14" t="b">
+        <v>1</v>
+      </c>
+      <c r="K14" t="b">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>60.62</v>
+      </c>
+      <c r="O14" t="s">
+        <v>173</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="S14">
+        <v>52.88</v>
+      </c>
+      <c r="T14" t="s">
+        <v>173</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="X14">
+        <v>69.7</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z14">
+        <v>1</v>
+      </c>
+      <c r="AA14">
+        <v>71000</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>71000</v>
+      </c>
+      <c r="AD14">
+        <v>1</v>
+      </c>
+      <c r="AE14">
+        <v>3</v>
+      </c>
+      <c r="AF14">
+        <v>3</v>
+      </c>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO14" t="s">
+        <v>181</v>
+      </c>
+      <c r="AP14" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:62">
+      <c r="A15" t="s">
+        <v>75</v>
+      </c>
+      <c r="B15">
+        <v>52.88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>55</v>
+      </c>
+      <c r="J15" t="b">
+        <v>1</v>
+      </c>
+      <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>60.62</v>
+      </c>
+      <c r="O15" t="s">
+        <v>173</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0.86</v>
+      </c>
+      <c r="R15">
+        <v>35.76</v>
+      </c>
+      <c r="S15">
+        <v>88.64</v>
+      </c>
+      <c r="T15" t="s">
+        <v>173</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>69.7</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>89000</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>89000</v>
+      </c>
+      <c r="AD15">
+        <v>1</v>
+      </c>
+      <c r="AE15">
+        <v>2</v>
+      </c>
+      <c r="AF15">
+        <v>3</v>
+      </c>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62">
+      <c r="A16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16">
+        <v>55</v>
+      </c>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>57</v>
+      </c>
+      <c r="H16">
+        <v>0.88</v>
+      </c>
+      <c r="I16" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" t="b">
+        <v>1</v>
+      </c>
+      <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>60.62</v>
+      </c>
+      <c r="O16" t="s">
+        <v>173</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>88.64</v>
+      </c>
+      <c r="T16" t="s">
+        <v>173</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="X16">
+        <v>69.7</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z16">
+        <v>1</v>
+      </c>
+      <c r="AA16">
+        <v>89000</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>89000</v>
+      </c>
+      <c r="AD16">
+        <v>1</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>3</v>
+      </c>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:51">
+      <c r="A17" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>0.51</v>
+      </c>
+      <c r="F17">
+        <v>7.1</v>
+      </c>
+      <c r="G17">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="H17">
+        <v>0.11</v>
+      </c>
+      <c r="I17" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
+      </c>
+      <c r="K17" t="b">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>60.62</v>
+      </c>
+      <c r="O17" t="s">
+        <v>173</v>
+      </c>
+      <c r="P17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>88.64</v>
+      </c>
+      <c r="T17" t="s">
+        <v>173</v>
+      </c>
+      <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="X17">
+        <v>69.7</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+      <c r="AA17">
+        <v>89000</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>89000</v>
+      </c>
+      <c r="AD17">
+        <v>1</v>
+      </c>
+      <c r="AE17">
+        <v>4</v>
+      </c>
+      <c r="AF17">
+        <v>4</v>
+      </c>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>175</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>176</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>180</v>
+      </c>
+      <c r="AO17" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP17" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ17" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR17" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:51">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18">
+        <v>60.62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="J18" t="b">
+        <v>1</v>
+      </c>
+      <c r="K18" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0.49</v>
+      </c>
+      <c r="M18">
+        <v>22.96</v>
+      </c>
+      <c r="N18">
+        <v>83.58</v>
+      </c>
+      <c r="O18" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>88.64</v>
+      </c>
+      <c r="T18" t="s">
+        <v>173</v>
+      </c>
+      <c r="U18">
+        <v>1</v>
+      </c>
+      <c r="X18">
+        <v>69.7</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+      <c r="AA18">
+        <v>107000</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>107000</v>
+      </c>
+      <c r="AD18">
+        <v>1</v>
+      </c>
+      <c r="AE18">
+        <v>3</v>
+      </c>
+      <c r="AF18">
+        <v>4</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO18" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP18" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ18" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="19" spans="1:51">
+      <c r="A19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19">
+        <v>64.09999999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>0.45</v>
+      </c>
+      <c r="F19">
+        <v>6.5</v>
+      </c>
+      <c r="G19">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="H19">
+        <v>0.76</v>
+      </c>
+      <c r="I19" t="s">
+        <v>169</v>
+      </c>
+      <c r="J19" t="b">
+        <v>1</v>
+      </c>
+      <c r="K19" t="b">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>83.58</v>
+      </c>
+      <c r="O19" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>88.64</v>
+      </c>
+      <c r="T19" t="s">
+        <v>173</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="X19">
+        <v>69.7</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+      <c r="AA19">
+        <v>107000</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>107000</v>
+      </c>
+      <c r="AD19">
+        <v>1</v>
+      </c>
+      <c r="AE19">
+        <v>4</v>
+      </c>
+      <c r="AF19">
+        <v>4</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>175</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP19" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ19" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR19" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:51">
+      <c r="A20" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20">
+        <v>69.7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="G20">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="J20" t="b">
+        <v>1</v>
+      </c>
+      <c r="K20" t="b">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>83.58</v>
+      </c>
+      <c r="O20" t="s">
+        <v>173</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>88.64</v>
+      </c>
+      <c r="T20" t="s">
+        <v>173</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>0.51</v>
+      </c>
+      <c r="W20">
+        <v>40.2</v>
+      </c>
+      <c r="X20">
+        <v>109.9</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z20">
+        <v>1</v>
+      </c>
+      <c r="AA20">
+        <v>142000</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>142000</v>
+      </c>
+      <c r="AD20">
+        <v>1</v>
+      </c>
+      <c r="AE20">
+        <v>3</v>
+      </c>
+      <c r="AF20">
+        <v>4</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP20" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ20" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR20" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:51">
+      <c r="A21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="C21" t="s">
+        <v>139</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+      <c r="E21">
+        <v>0.34</v>
+      </c>
+      <c r="F21">
+        <v>5.4</v>
+      </c>
+      <c r="G21">
+        <v>76</v>
+      </c>
+      <c r="H21">
+        <v>0.05</v>
+      </c>
+      <c r="I21" t="s">
+        <v>170</v>
+      </c>
+      <c r="J21" t="b">
+        <v>1</v>
+      </c>
+      <c r="K21" t="b">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>83.58</v>
+      </c>
+      <c r="O21" t="s">
+        <v>173</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>88.64</v>
+      </c>
+      <c r="T21" t="s">
+        <v>173</v>
+      </c>
+      <c r="U21">
+        <v>2</v>
+      </c>
+      <c r="X21">
+        <v>109.9</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+      <c r="AA21">
+        <v>142000</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>142000</v>
+      </c>
+      <c r="AD21">
+        <v>1</v>
+      </c>
+      <c r="AE21">
+        <v>4</v>
+      </c>
+      <c r="AF21">
+        <v>4</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ21" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR21" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS21" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:51">
+      <c r="A22" t="s">
+        <v>82</v>
+      </c>
+      <c r="B22">
+        <v>76</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+      <c r="E22">
+        <v>0.78</v>
+      </c>
+      <c r="F22">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G22">
+        <v>85.8</v>
+      </c>
+      <c r="H22">
+        <v>0.15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="b">
+        <v>1</v>
+      </c>
+      <c r="K22" t="b">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>83.58</v>
+      </c>
+      <c r="O22" t="s">
+        <v>173</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>88.64</v>
+      </c>
+      <c r="T22" t="s">
+        <v>173</v>
+      </c>
+      <c r="U22">
+        <v>2</v>
+      </c>
+      <c r="X22">
+        <v>109.9</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z22">
+        <v>3</v>
+      </c>
+      <c r="AA22">
+        <v>142000</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>142000</v>
+      </c>
+      <c r="AD22">
+        <v>1</v>
+      </c>
+      <c r="AE22">
+        <v>5</v>
+      </c>
+      <c r="AF22">
+        <v>5</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AN22" t="s">
+        <v>176</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP22" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ22" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR22" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS22" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT22" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="23" spans="1:51">
+      <c r="A23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23">
+        <v>83.58</v>
+      </c>
+      <c r="C23" t="s">
+        <v>131</v>
+      </c>
+      <c r="D23">
+        <v>7</v>
+      </c>
+      <c r="G23">
+        <v>85.8</v>
+      </c>
+      <c r="J23" t="b">
+        <v>1</v>
+      </c>
+      <c r="K23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
+        <v>172</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>88.64</v>
+      </c>
+      <c r="T23" t="s">
+        <v>173</v>
+      </c>
+      <c r="U23">
+        <v>2</v>
+      </c>
+      <c r="X23">
+        <v>109.9</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z23">
+        <v>3</v>
+      </c>
+      <c r="AA23">
+        <v>160000</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>160000</v>
+      </c>
+      <c r="AD23">
+        <v>1</v>
+      </c>
+      <c r="AE23">
+        <v>5</v>
+      </c>
+      <c r="AF23">
+        <v>5</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO23" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP23" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR23" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS23" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT23" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU23" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="24" spans="1:51">
+      <c r="A24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D24">
+        <v>10</v>
+      </c>
+      <c r="G24">
+        <v>85.8</v>
+      </c>
+      <c r="J24" t="b">
+        <v>1</v>
+      </c>
+      <c r="K24" t="b">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>172</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>88.64</v>
+      </c>
+      <c r="T24" t="s">
+        <v>173</v>
+      </c>
+      <c r="U24">
+        <v>2</v>
+      </c>
+      <c r="X24">
+        <v>109.9</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+      <c r="AA24">
+        <v>160000</v>
+      </c>
+      <c r="AB24">
+        <v>6500</v>
+      </c>
+      <c r="AC24">
+        <v>153500</v>
+      </c>
+      <c r="AD24">
+        <v>1</v>
+      </c>
+      <c r="AE24">
+        <v>5</v>
+      </c>
+      <c r="AF24">
+        <v>5</v>
+      </c>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO24" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP24" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR24" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS24" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT24" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU24" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:51">
+      <c r="A25" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25">
+        <v>85.8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+      <c r="E25">
+        <v>0.37</v>
+      </c>
+      <c r="F25">
+        <v>5.7</v>
+      </c>
+      <c r="G25">
+        <v>91.5</v>
+      </c>
+      <c r="H25">
+        <v>0.77</v>
+      </c>
+      <c r="I25" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" t="b">
+        <v>1</v>
+      </c>
+      <c r="K25" t="b">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>172</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>88.64</v>
+      </c>
+      <c r="T25" t="s">
+        <v>173</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="X25">
+        <v>109.9</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+      <c r="AA25">
+        <v>160000</v>
+      </c>
+      <c r="AB25">
+        <v>6500</v>
+      </c>
+      <c r="AC25">
+        <v>153500</v>
+      </c>
+      <c r="AD25">
+        <v>1</v>
+      </c>
+      <c r="AE25">
+        <v>6</v>
+      </c>
+      <c r="AF25">
+        <v>6</v>
+      </c>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO25" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP25" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ25" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT25" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU25" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV25" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="26" spans="1:51">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26">
+        <v>87</v>
+      </c>
+      <c r="C26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D26">
+        <v>11</v>
+      </c>
+      <c r="G26">
+        <v>91.5</v>
+      </c>
+      <c r="J26" t="b">
+        <v>1</v>
+      </c>
+      <c r="K26" t="b">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>172</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>88.64</v>
+      </c>
+      <c r="T26" t="s">
+        <v>173</v>
+      </c>
+      <c r="U26">
+        <v>3</v>
+      </c>
+      <c r="X26">
+        <v>109.9</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z26">
+        <v>3</v>
+      </c>
+      <c r="AA26">
+        <v>160000</v>
+      </c>
+      <c r="AB26">
+        <v>13000</v>
+      </c>
+      <c r="AC26">
+        <v>147000</v>
+      </c>
+      <c r="AD26">
+        <v>1</v>
+      </c>
+      <c r="AE26">
+        <v>6</v>
+      </c>
+      <c r="AF26">
+        <v>6</v>
+      </c>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>174</v>
+      </c>
+      <c r="AP26" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ26" t="s">
+        <v>183</v>
+      </c>
+      <c r="AR26" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS26" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV26" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:51">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27">
+        <v>88.64</v>
+      </c>
+      <c r="C27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="G27">
+        <v>91.5</v>
+      </c>
+      <c r="J27" t="b">
+        <v>1</v>
+      </c>
+      <c r="K27" t="b">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>172</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0.17</v>
+      </c>
+      <c r="R27">
+        <v>24.72</v>
+      </c>
+      <c r="S27">
+        <v>113.36</v>
+      </c>
+      <c r="T27" t="s">
+        <v>173</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="X27">
+        <v>109.9</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z27">
+        <v>3</v>
+      </c>
+      <c r="AA27">
+        <v>178000</v>
+      </c>
+      <c r="AB27">
+        <v>13000</v>
+      </c>
+      <c r="AC27">
+        <v>165000</v>
+      </c>
+      <c r="AD27">
+        <v>1</v>
+      </c>
+      <c r="AE27">
+        <v>5</v>
+      </c>
+      <c r="AF27">
+        <v>6</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP27" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ27" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR27" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS27" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT27" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="28" spans="1:51">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28">
+        <v>91.5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28">
+        <v>16</v>
+      </c>
+      <c r="E28">
+        <v>0.42</v>
+      </c>
+      <c r="F28">
+        <v>6.2</v>
+      </c>
+      <c r="G28">
+        <v>97.7</v>
+      </c>
+      <c r="H28">
+        <v>0.49</v>
+      </c>
+      <c r="I28" t="s">
+        <v>171</v>
+      </c>
+      <c r="J28" t="b">
+        <v>1</v>
+      </c>
+      <c r="K28" t="b">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0.65</v>
+      </c>
+      <c r="M28">
+        <v>23.6</v>
+      </c>
+      <c r="N28">
+        <v>115.1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>173</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>113.36</v>
+      </c>
+      <c r="T28" t="s">
+        <v>173</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="X28">
+        <v>109.9</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z28">
+        <v>3</v>
+      </c>
+      <c r="AA28">
+        <v>178000</v>
+      </c>
+      <c r="AB28">
+        <v>13000</v>
+      </c>
+      <c r="AC28">
+        <v>165000</v>
+      </c>
+      <c r="AD28">
+        <v>1</v>
+      </c>
+      <c r="AE28">
+        <v>5</v>
+      </c>
+      <c r="AF28">
+        <v>6</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP28" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ28" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR28" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT28" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU28" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV28" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:51">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29">
+        <v>94.09999999999999</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29">
+        <v>12</v>
+      </c>
+      <c r="G29">
+        <v>97.7</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
+      </c>
+      <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>115.1</v>
+      </c>
+      <c r="O29" t="s">
+        <v>173</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>113.36</v>
+      </c>
+      <c r="T29" t="s">
+        <v>173</v>
+      </c>
+      <c r="U29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>109.9</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z29">
+        <v>3</v>
+      </c>
+      <c r="AA29">
+        <v>178000</v>
+      </c>
+      <c r="AB29">
+        <v>19500</v>
+      </c>
+      <c r="AC29">
+        <v>158500</v>
+      </c>
+      <c r="AD29">
+        <v>1</v>
+      </c>
+      <c r="AE29">
+        <v>5</v>
+      </c>
+      <c r="AF29">
+        <v>6</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP29" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ29" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR29" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS29" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT29" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU29" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV29" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:51">
+      <c r="A30" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30">
+        <v>97.7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
+      </c>
+      <c r="E30">
+        <v>0.03</v>
+      </c>
+      <c r="F30">
+        <v>2.29</v>
+      </c>
+      <c r="G30">
+        <v>100</v>
+      </c>
+      <c r="H30">
+        <v>0.05</v>
+      </c>
+      <c r="I30" t="s">
+        <v>170</v>
+      </c>
+      <c r="J30" t="b">
+        <v>1</v>
+      </c>
+      <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>115.1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>173</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>113.36</v>
+      </c>
+      <c r="T30" t="s">
+        <v>173</v>
+      </c>
+      <c r="U30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>109.9</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>178000</v>
+      </c>
+      <c r="AB30">
+        <v>19500</v>
+      </c>
+      <c r="AC30">
+        <v>158500</v>
+      </c>
+      <c r="AD30">
+        <v>1</v>
+      </c>
+      <c r="AE30">
+        <v>6</v>
+      </c>
+      <c r="AF30">
+        <v>6</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ30" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR30" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS30" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU30" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV30" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW30" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX30" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31" spans="1:51">
+      <c r="A31" t="s">
+        <v>91</v>
+      </c>
+      <c r="B31">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31">
+        <v>0.02</v>
+      </c>
+      <c r="F31">
+        <v>2.2</v>
+      </c>
+      <c r="G31">
+        <v>102.2</v>
+      </c>
+      <c r="H31">
+        <v>0.34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>171</v>
+      </c>
+      <c r="J31" t="b">
+        <v>1</v>
+      </c>
+      <c r="K31" t="b">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>115.1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>173</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+      <c r="S31">
+        <v>113.36</v>
+      </c>
+      <c r="T31" t="s">
+        <v>173</v>
+      </c>
+      <c r="U31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>109.9</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AA31">
+        <v>178000</v>
+      </c>
+      <c r="AB31">
+        <v>19500</v>
+      </c>
+      <c r="AC31">
+        <v>158500</v>
+      </c>
+      <c r="AD31">
+        <v>1</v>
+      </c>
+      <c r="AE31">
+        <v>7</v>
+      </c>
+      <c r="AF31">
+        <v>7</v>
+      </c>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ31" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR31" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS31" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT31" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU31" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV31" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW31" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX31" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY31" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:51">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>100.6</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>102.2</v>
+      </c>
+      <c r="J32" t="b">
+        <v>1</v>
+      </c>
+      <c r="K32" t="b">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>115.1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+      <c r="S32">
+        <v>113.36</v>
+      </c>
+      <c r="T32" t="s">
+        <v>173</v>
+      </c>
+      <c r="U32">
+        <v>2</v>
+      </c>
+      <c r="X32">
+        <v>109.9</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z32">
+        <v>4</v>
+      </c>
+      <c r="AA32">
+        <v>178000</v>
+      </c>
+      <c r="AB32">
+        <v>26000</v>
+      </c>
+      <c r="AC32">
+        <v>152000</v>
+      </c>
+      <c r="AD32">
+        <v>1</v>
+      </c>
+      <c r="AE32">
+        <v>7</v>
+      </c>
+      <c r="AF32">
+        <v>7</v>
+      </c>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP32" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ32" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR32" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS32" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT32" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU32" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV32" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW32" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX32" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:58">
+      <c r="A33" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33">
+        <v>102.2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33">
+        <v>19</v>
+      </c>
+      <c r="E33">
+        <v>0.77</v>
+      </c>
+      <c r="F33">
+        <v>9.69</v>
+      </c>
+      <c r="G33">
+        <v>111.9</v>
+      </c>
+      <c r="H33">
+        <v>0.7</v>
+      </c>
+      <c r="I33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J33" t="b">
+        <v>1</v>
+      </c>
+      <c r="K33" t="b">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>115.1</v>
+      </c>
+      <c r="O33" t="s">
+        <v>173</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="S33">
+        <v>113.36</v>
+      </c>
+      <c r="T33" t="s">
+        <v>173</v>
+      </c>
+      <c r="U33">
+        <v>3</v>
+      </c>
+      <c r="X33">
+        <v>109.9</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z33">
+        <v>4</v>
+      </c>
+      <c r="AA33">
+        <v>178000</v>
+      </c>
+      <c r="AB33">
+        <v>26000</v>
+      </c>
+      <c r="AC33">
+        <v>152000</v>
+      </c>
+      <c r="AD33">
+        <v>1</v>
+      </c>
+      <c r="AE33">
+        <v>8</v>
+      </c>
+      <c r="AF33">
+        <v>8</v>
+      </c>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP33" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ33" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR33" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS33" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT33" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU33" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV33" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW33" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX33" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY33" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:58">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34">
+        <v>106</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34">
+        <v>14</v>
+      </c>
+      <c r="G34">
+        <v>111.9</v>
+      </c>
+      <c r="J34" t="b">
+        <v>1</v>
+      </c>
+      <c r="K34" t="b">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>115.1</v>
+      </c>
+      <c r="O34" t="s">
+        <v>173</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+      <c r="S34">
+        <v>113.36</v>
+      </c>
+      <c r="T34" t="s">
+        <v>173</v>
+      </c>
+      <c r="U34">
+        <v>3</v>
+      </c>
+      <c r="X34">
+        <v>109.9</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z34">
+        <v>4</v>
+      </c>
+      <c r="AA34">
+        <v>178000</v>
+      </c>
+      <c r="AB34">
+        <v>32500</v>
+      </c>
+      <c r="AC34">
+        <v>145500</v>
+      </c>
+      <c r="AD34">
+        <v>1</v>
+      </c>
+      <c r="AE34">
+        <v>8</v>
+      </c>
+      <c r="AF34">
+        <v>8</v>
+      </c>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AP34" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ34" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR34" t="s">
+        <v>184</v>
+      </c>
+      <c r="AS34" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT34" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU34" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV34" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW34" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX34" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY34" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ34" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="35" spans="1:58">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35">
+        <v>109.9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35">
+        <v>9</v>
+      </c>
+      <c r="G35">
+        <v>111.9</v>
+      </c>
+      <c r="J35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K35" t="b">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>115.1</v>
+      </c>
+      <c r="O35" t="s">
+        <v>173</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+      <c r="S35">
+        <v>113.36</v>
+      </c>
+      <c r="T35" t="s">
+        <v>173</v>
+      </c>
+      <c r="U35">
+        <v>3</v>
+      </c>
+      <c r="V35">
+        <v>0.61</v>
+      </c>
+      <c r="W35">
+        <v>42.2</v>
+      </c>
+      <c r="X35">
+        <v>152.1</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z35">
+        <v>3</v>
+      </c>
+      <c r="AA35">
+        <v>213000</v>
+      </c>
+      <c r="AB35">
+        <v>32500</v>
+      </c>
+      <c r="AC35">
+        <v>180500</v>
+      </c>
+      <c r="AD35">
+        <v>1</v>
+      </c>
+      <c r="AE35">
+        <v>7</v>
+      </c>
+      <c r="AF35">
+        <v>8</v>
+      </c>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR35" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS35" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT35" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU35" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV35" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW35" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX35" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY35" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ35" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="36" spans="1:58">
+      <c r="A36" t="s">
+        <v>96</v>
+      </c>
+      <c r="B36">
+        <v>111.9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>151</v>
+      </c>
+      <c r="D36">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>0.49</v>
+      </c>
+      <c r="F36">
+        <v>6.9</v>
+      </c>
+      <c r="G36">
+        <v>118.8</v>
+      </c>
+      <c r="H36">
+        <v>0.49</v>
+      </c>
+      <c r="I36" t="s">
+        <v>171</v>
+      </c>
+      <c r="J36" t="b">
+        <v>1</v>
+      </c>
+      <c r="K36" t="b">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>115.1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>173</v>
+      </c>
+      <c r="P36">
+        <v>2</v>
+      </c>
+      <c r="S36">
+        <v>113.36</v>
+      </c>
+      <c r="T36" t="s">
+        <v>173</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="X36">
+        <v>152.1</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z36">
+        <v>3</v>
+      </c>
+      <c r="AA36">
+        <v>213000</v>
+      </c>
+      <c r="AB36">
+        <v>32500</v>
+      </c>
+      <c r="AC36">
+        <v>180500</v>
+      </c>
+      <c r="AD36">
+        <v>1</v>
+      </c>
+      <c r="AE36">
+        <v>8</v>
+      </c>
+      <c r="AF36">
+        <v>8</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AQ36" t="s">
+        <v>174</v>
+      </c>
+      <c r="AR36" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS36" t="s">
+        <v>185</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU36" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV36" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW36" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX36" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY36" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ36" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="37" spans="1:58">
+      <c r="A37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37">
+        <v>113.36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+      <c r="D37">
+        <v>10</v>
+      </c>
+      <c r="G37">
+        <v>118.8</v>
+      </c>
+      <c r="J37" t="b">
+        <v>1</v>
+      </c>
+      <c r="K37" t="b">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>115.1</v>
+      </c>
+      <c r="O37" t="s">
+        <v>173</v>
+      </c>
+      <c r="P37">
+        <v>2</v>
+      </c>
+      <c r="Q37">
+        <v>0.98</v>
+      </c>
+      <c r="R37">
+        <v>37.68</v>
+      </c>
+      <c r="S37">
+        <v>151.04</v>
+      </c>
+      <c r="T37" t="s">
+        <v>173</v>
+      </c>
+      <c r="U37">
+        <v>2</v>
+      </c>
+      <c r="X37">
+        <v>152.1</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z37">
+        <v>3</v>
+      </c>
+      <c r="AA37">
+        <v>231000</v>
+      </c>
+      <c r="AB37">
+        <v>32500</v>
+      </c>
+      <c r="AC37">
+        <v>198500</v>
+      </c>
+      <c r="AD37">
+        <v>1</v>
+      </c>
+      <c r="AE37">
+        <v>7</v>
+      </c>
+      <c r="AF37">
+        <v>8</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS37" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT37" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU37" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV37" t="s">
+        <v>188</v>
+      </c>
+      <c r="AW37" t="s">
+        <v>176</v>
+      </c>
+      <c r="AX37" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY37" t="s">
+        <v>190</v>
+      </c>
+      <c r="AZ37" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA37" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:58">
+      <c r="A38" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38">
+        <v>115.1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>131</v>
+      </c>
+      <c r="D38">
+        <v>16</v>
+      </c>
+      <c r="G38">
+        <v>118.8</v>
+      </c>
+      <c r="J38" t="b">
+        <v>1</v>
+      </c>
+      <c r="K38" t="b">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="M38">
+        <v>23.24</v>
+      </c>
+      <c r="N38">
+        <v>138.34</v>
+      </c>
+      <c r="O38" t="s">
+        <v>173</v>
+      </c>
+      <c r="P38">
+        <v>1</v>
+      </c>
+      <c r="S38">
+        <v>151.04</v>
+      </c>
+      <c r="T38" t="s">
+        <v>173</v>
+      </c>
+      <c r="U38">
+        <v>2</v>
+      </c>
+      <c r="X38">
+        <v>152.1</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z38">
+        <v>3</v>
+      </c>
+      <c r="AA38">
+        <v>249000</v>
+      </c>
+      <c r="AB38">
+        <v>32500</v>
+      </c>
+      <c r="AC38">
+        <v>216500</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>6</v>
+      </c>
+      <c r="AF38">
+        <v>8</v>
+      </c>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT38" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU38" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV38" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX38" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ38" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:58">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39">
+        <v>115.8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39">
+        <v>15</v>
+      </c>
+      <c r="G39">
+        <v>118.8</v>
+      </c>
+      <c r="J39" t="b">
+        <v>1</v>
+      </c>
+      <c r="K39" t="b">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>138.34</v>
+      </c>
+      <c r="O39" t="s">
+        <v>173</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>151.04</v>
+      </c>
+      <c r="T39" t="s">
+        <v>173</v>
+      </c>
+      <c r="U39">
+        <v>2</v>
+      </c>
+      <c r="X39">
+        <v>152.1</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z39">
+        <v>3</v>
+      </c>
+      <c r="AA39">
+        <v>249000</v>
+      </c>
+      <c r="AB39">
+        <v>39000</v>
+      </c>
+      <c r="AC39">
+        <v>210000</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>6</v>
+      </c>
+      <c r="AF39">
+        <v>8</v>
+      </c>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS39" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT39" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU39" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV39" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX39" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY39" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ39" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA39" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:58">
+      <c r="A40" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40">
+        <v>118.8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40">
+        <v>21</v>
+      </c>
+      <c r="E40">
+        <v>0.23</v>
+      </c>
+      <c r="F40">
+        <v>4.3</v>
+      </c>
+      <c r="G40">
+        <v>123.1</v>
+      </c>
+      <c r="H40">
+        <v>0.18</v>
+      </c>
+      <c r="I40" t="s">
+        <v>170</v>
+      </c>
+      <c r="J40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K40" t="b">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>138.34</v>
+      </c>
+      <c r="O40" t="s">
+        <v>173</v>
+      </c>
+      <c r="P40">
+        <v>1</v>
+      </c>
+      <c r="S40">
+        <v>151.04</v>
+      </c>
+      <c r="T40" t="s">
+        <v>173</v>
+      </c>
+      <c r="U40">
+        <v>2</v>
+      </c>
+      <c r="X40">
+        <v>152.1</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z40">
+        <v>4</v>
+      </c>
+      <c r="AA40">
+        <v>249000</v>
+      </c>
+      <c r="AB40">
+        <v>39000</v>
+      </c>
+      <c r="AC40">
+        <v>210000</v>
+      </c>
+      <c r="AD40">
+        <v>1</v>
+      </c>
+      <c r="AE40">
+        <v>7</v>
+      </c>
+      <c r="AF40">
+        <v>8</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS40" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT40" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU40" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV40" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX40" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY40" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ40" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA40" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB40" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="41" spans="1:58">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41">
+        <v>123.1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41">
+        <v>22</v>
+      </c>
+      <c r="E41">
+        <v>0.73</v>
+      </c>
+      <c r="F41">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="G41">
+        <v>132.4</v>
+      </c>
+      <c r="H41">
+        <v>0.06</v>
+      </c>
+      <c r="I41" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" t="b">
+        <v>1</v>
+      </c>
+      <c r="K41" t="b">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>138.34</v>
+      </c>
+      <c r="O41" t="s">
+        <v>173</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>151.04</v>
+      </c>
+      <c r="T41" t="s">
+        <v>173</v>
+      </c>
+      <c r="U41">
+        <v>2</v>
+      </c>
+      <c r="X41">
+        <v>152.1</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z41">
+        <v>5</v>
+      </c>
+      <c r="AA41">
+        <v>249000</v>
+      </c>
+      <c r="AB41">
+        <v>39000</v>
+      </c>
+      <c r="AC41">
+        <v>210000</v>
+      </c>
+      <c r="AD41">
+        <v>1</v>
+      </c>
+      <c r="AE41">
+        <v>8</v>
+      </c>
+      <c r="AF41">
+        <v>8</v>
+      </c>
+      <c r="AG41" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS41" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT41" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU41" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV41" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX41" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY41" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ41" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA41" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB41" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC41" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:58">
+      <c r="A42" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42">
+        <v>127.7</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42">
+        <v>17</v>
+      </c>
+      <c r="G42">
+        <v>132.4</v>
+      </c>
+      <c r="J42" t="b">
+        <v>1</v>
+      </c>
+      <c r="K42" t="b">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>138.34</v>
+      </c>
+      <c r="O42" t="s">
+        <v>173</v>
+      </c>
+      <c r="P42">
+        <v>1</v>
+      </c>
+      <c r="S42">
+        <v>151.04</v>
+      </c>
+      <c r="T42" t="s">
+        <v>173</v>
+      </c>
+      <c r="U42">
+        <v>2</v>
+      </c>
+      <c r="X42">
+        <v>152.1</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z42">
+        <v>5</v>
+      </c>
+      <c r="AA42">
+        <v>249000</v>
+      </c>
+      <c r="AB42">
+        <v>45500</v>
+      </c>
+      <c r="AC42">
+        <v>203500</v>
+      </c>
+      <c r="AD42">
+        <v>1</v>
+      </c>
+      <c r="AE42">
+        <v>8</v>
+      </c>
+      <c r="AF42">
+        <v>8</v>
+      </c>
+      <c r="AG42" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS42" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT42" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU42" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV42" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX42" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY42" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ42" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA42" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB42" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC42" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:58">
+      <c r="A43" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43">
+        <v>132.2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43">
+        <v>19</v>
+      </c>
+      <c r="G43">
+        <v>132.4</v>
+      </c>
+      <c r="J43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>138.34</v>
+      </c>
+      <c r="O43" t="s">
+        <v>173</v>
+      </c>
+      <c r="P43">
+        <v>1</v>
+      </c>
+      <c r="S43">
+        <v>151.04</v>
+      </c>
+      <c r="T43" t="s">
+        <v>173</v>
+      </c>
+      <c r="U43">
+        <v>2</v>
+      </c>
+      <c r="X43">
+        <v>152.1</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z43">
+        <v>5</v>
+      </c>
+      <c r="AA43">
+        <v>249000</v>
+      </c>
+      <c r="AB43">
+        <v>52000</v>
+      </c>
+      <c r="AC43">
+        <v>197000</v>
+      </c>
+      <c r="AD43">
+        <v>1</v>
+      </c>
+      <c r="AE43">
+        <v>8</v>
+      </c>
+      <c r="AF43">
+        <v>8</v>
+      </c>
+      <c r="AG43" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS43" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT43" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU43" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV43" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX43" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY43" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ43" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA43" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB43" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC43" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:58">
+      <c r="A44" t="s">
+        <v>104</v>
+      </c>
+      <c r="B44">
+        <v>132.4</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44">
+        <v>23</v>
+      </c>
+      <c r="E44">
+        <v>0.34</v>
+      </c>
+      <c r="F44">
+        <v>5.4</v>
+      </c>
+      <c r="G44">
+        <v>137.8</v>
+      </c>
+      <c r="H44">
+        <v>0.47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>171</v>
+      </c>
+      <c r="J44" t="b">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>138.34</v>
+      </c>
+      <c r="O44" t="s">
+        <v>173</v>
+      </c>
+      <c r="P44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>151.04</v>
+      </c>
+      <c r="T44" t="s">
+        <v>173</v>
+      </c>
+      <c r="U44">
+        <v>2</v>
+      </c>
+      <c r="X44">
+        <v>152.1</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z44">
+        <v>5</v>
+      </c>
+      <c r="AA44">
+        <v>249000</v>
+      </c>
+      <c r="AB44">
+        <v>52000</v>
+      </c>
+      <c r="AC44">
+        <v>197000</v>
+      </c>
+      <c r="AD44">
+        <v>1</v>
+      </c>
+      <c r="AE44">
+        <v>9</v>
+      </c>
+      <c r="AF44">
+        <v>9</v>
+      </c>
+      <c r="AG44" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR44" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS44" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT44" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU44" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV44" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX44" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY44" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA44" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB44" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC44" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD44" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="45" spans="1:58">
+      <c r="A45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45">
+        <v>137.8</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45">
+        <v>24</v>
+      </c>
+      <c r="E45">
+        <v>0.03</v>
+      </c>
+      <c r="F45">
+        <v>2.29</v>
+      </c>
+      <c r="G45">
+        <v>140.1</v>
+      </c>
+      <c r="H45">
+        <v>0.35</v>
+      </c>
+      <c r="I45" t="s">
+        <v>171</v>
+      </c>
+      <c r="J45" t="b">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>138.34</v>
+      </c>
+      <c r="O45" t="s">
+        <v>173</v>
+      </c>
+      <c r="P45">
+        <v>3</v>
+      </c>
+      <c r="S45">
+        <v>151.04</v>
+      </c>
+      <c r="T45" t="s">
+        <v>173</v>
+      </c>
+      <c r="U45">
+        <v>2</v>
+      </c>
+      <c r="X45">
+        <v>152.1</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z45">
+        <v>5</v>
+      </c>
+      <c r="AA45">
+        <v>249000</v>
+      </c>
+      <c r="AB45">
+        <v>52000</v>
+      </c>
+      <c r="AC45">
+        <v>197000</v>
+      </c>
+      <c r="AD45">
+        <v>1</v>
+      </c>
+      <c r="AE45">
+        <v>10</v>
+      </c>
+      <c r="AF45">
+        <v>10</v>
+      </c>
+      <c r="AG45" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR45" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS45" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT45" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU45" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV45" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX45" t="s">
+        <v>189</v>
+      </c>
+      <c r="AY45" t="s">
+        <v>176</v>
+      </c>
+      <c r="AZ45" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA45" t="s">
+        <v>192</v>
+      </c>
+      <c r="BB45" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC45" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD45" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE45" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="46" spans="1:58">
+      <c r="A46" t="s">
+        <v>106</v>
+      </c>
+      <c r="B46">
+        <v>138.34</v>
+      </c>
+      <c r="C46" t="s">
+        <v>131</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="G46">
+        <v>140.1</v>
+      </c>
+      <c r="J46" t="b">
+        <v>1</v>
+      </c>
+      <c r="K46" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0.11</v>
+      </c>
+      <c r="M46">
+        <v>21.44</v>
+      </c>
+      <c r="N46">
+        <v>159.78</v>
+      </c>
+      <c r="O46" t="s">
+        <v>173</v>
+      </c>
+      <c r="P46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>151.04</v>
+      </c>
+      <c r="T46" t="s">
+        <v>173</v>
+      </c>
+      <c r="U46">
+        <v>2</v>
+      </c>
+      <c r="X46">
+        <v>152.1</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z46">
+        <v>5</v>
+      </c>
+      <c r="AA46">
+        <v>267000</v>
+      </c>
+      <c r="AB46">
+        <v>52000</v>
+      </c>
+      <c r="AC46">
+        <v>215000</v>
+      </c>
+      <c r="AD46">
+        <v>1</v>
+      </c>
+      <c r="AE46">
+        <v>9</v>
+      </c>
+      <c r="AF46">
+        <v>10</v>
+      </c>
+      <c r="AG46" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR46" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS46" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT46" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU46" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV46" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX46" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ46" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA46" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB46" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC46" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD46" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE46" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="47" spans="1:58">
+      <c r="A47" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47">
+        <v>140.1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>159</v>
+      </c>
+      <c r="D47">
+        <v>25</v>
+      </c>
+      <c r="E47">
+        <v>0.86</v>
+      </c>
+      <c r="F47">
+        <v>10.6</v>
+      </c>
+      <c r="G47">
+        <v>150.7</v>
+      </c>
+      <c r="H47">
+        <v>0.88</v>
+      </c>
+      <c r="I47" t="s">
+        <v>169</v>
+      </c>
+      <c r="J47" t="b">
+        <v>1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>159.78</v>
+      </c>
+      <c r="O47" t="s">
+        <v>173</v>
+      </c>
+      <c r="P47">
+        <v>2</v>
+      </c>
+      <c r="S47">
+        <v>151.04</v>
+      </c>
+      <c r="T47" t="s">
+        <v>173</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="X47">
+        <v>152.1</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z47">
+        <v>5</v>
+      </c>
+      <c r="AA47">
+        <v>267000</v>
+      </c>
+      <c r="AB47">
+        <v>52000</v>
+      </c>
+      <c r="AC47">
+        <v>215000</v>
+      </c>
+      <c r="AD47">
+        <v>1</v>
+      </c>
+      <c r="AE47">
+        <v>10</v>
+      </c>
+      <c r="AF47">
+        <v>10</v>
+      </c>
+      <c r="AG47" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR47" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS47" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT47" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU47" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV47" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX47" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ47" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA47" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB47" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC47" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD47" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE47" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF47" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="1:58">
+      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="B48">
+        <v>148.8</v>
+      </c>
+      <c r="C48" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48">
+        <v>21</v>
+      </c>
+      <c r="G48">
+        <v>150.7</v>
+      </c>
+      <c r="J48" t="b">
+        <v>1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>159.78</v>
+      </c>
+      <c r="O48" t="s">
+        <v>173</v>
+      </c>
+      <c r="P48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>151.04</v>
+      </c>
+      <c r="T48" t="s">
+        <v>173</v>
+      </c>
+      <c r="U48">
+        <v>3</v>
+      </c>
+      <c r="X48">
+        <v>152.1</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z48">
+        <v>5</v>
+      </c>
+      <c r="AA48">
+        <v>267000</v>
+      </c>
+      <c r="AB48">
+        <v>58500</v>
+      </c>
+      <c r="AC48">
+        <v>208500</v>
+      </c>
+      <c r="AD48">
+        <v>1</v>
+      </c>
+      <c r="AE48">
+        <v>10</v>
+      </c>
+      <c r="AF48">
+        <v>10</v>
+      </c>
+      <c r="AG48" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR48" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS48" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT48" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU48" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV48" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX48" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ48" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA48" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB48" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD48" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE48" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF48" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="49" spans="1:62">
+      <c r="A49" t="s">
+        <v>109</v>
+      </c>
+      <c r="B49">
+        <v>150.7</v>
+      </c>
+      <c r="C49" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49">
+        <v>26</v>
+      </c>
+      <c r="E49">
+        <v>0.95</v>
+      </c>
+      <c r="F49">
+        <v>11.5</v>
+      </c>
+      <c r="G49">
+        <v>162.2</v>
+      </c>
+      <c r="H49">
+        <v>0.32</v>
+      </c>
+      <c r="I49" t="s">
+        <v>171</v>
+      </c>
+      <c r="J49" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>159.78</v>
+      </c>
+      <c r="O49" t="s">
+        <v>173</v>
+      </c>
+      <c r="P49">
+        <v>3</v>
+      </c>
+      <c r="S49">
+        <v>151.04</v>
+      </c>
+      <c r="T49" t="s">
+        <v>173</v>
+      </c>
+      <c r="U49">
+        <v>3</v>
+      </c>
+      <c r="X49">
+        <v>152.1</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z49">
+        <v>5</v>
+      </c>
+      <c r="AA49">
+        <v>267000</v>
+      </c>
+      <c r="AB49">
+        <v>58500</v>
+      </c>
+      <c r="AC49">
+        <v>208500</v>
+      </c>
+      <c r="AD49">
+        <v>1</v>
+      </c>
+      <c r="AE49">
+        <v>11</v>
+      </c>
+      <c r="AF49">
+        <v>11</v>
+      </c>
+      <c r="AG49" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR49" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS49" t="s">
+        <v>174</v>
+      </c>
+      <c r="AT49" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU49" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV49" t="s">
+        <v>188</v>
+      </c>
+      <c r="AX49" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ49" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA49" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB49" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC49" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD49" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE49" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF49" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:62">
+      <c r="A50" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50">
+        <v>151.04</v>
+      </c>
+      <c r="C50" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50">
+        <v>12</v>
+      </c>
+      <c r="G50">
+        <v>162.2</v>
+      </c>
+      <c r="J50" t="b">
+        <v>1</v>
+      </c>
+      <c r="K50" t="b">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>159.78</v>
+      </c>
+      <c r="O50" t="s">
+        <v>173</v>
+      </c>
+      <c r="P50">
+        <v>3</v>
+      </c>
+      <c r="Q50">
+        <v>0.88</v>
+      </c>
+      <c r="R50">
+        <v>36.08</v>
+      </c>
+      <c r="S50">
+        <v>187.12</v>
+      </c>
+      <c r="T50" t="s">
+        <v>173</v>
+      </c>
+      <c r="U50">
+        <v>2</v>
+      </c>
+      <c r="X50">
+        <v>152.1</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z50">
+        <v>5</v>
+      </c>
+      <c r="AA50">
+        <v>285000</v>
+      </c>
+      <c r="AB50">
+        <v>58500</v>
+      </c>
+      <c r="AC50">
+        <v>226500</v>
+      </c>
+      <c r="AD50">
+        <v>1</v>
+      </c>
+      <c r="AE50">
+        <v>10</v>
+      </c>
+      <c r="AF50">
+        <v>11</v>
+      </c>
+      <c r="AG50" t="b">
+        <v>1</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>175</v>
+      </c>
+      <c r="AT50" t="s">
+        <v>186</v>
+      </c>
+      <c r="AU50" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV50" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX50" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ50" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC50" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE50" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF50" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG50" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:62">
+      <c r="A51" t="s">
+        <v>111</v>
+      </c>
+      <c r="B51">
+        <v>152.1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>133</v>
+      </c>
+      <c r="D51">
+        <v>11</v>
+      </c>
+      <c r="G51">
+        <v>162.2</v>
+      </c>
+      <c r="J51" t="b">
+        <v>1</v>
+      </c>
+      <c r="K51" t="b">
+        <v>0</v>
+      </c>
+      <c r="N51">
+        <v>159.78</v>
+      </c>
+      <c r="O51" t="s">
+        <v>173</v>
+      </c>
+      <c r="P51">
+        <v>3</v>
+      </c>
+      <c r="S51">
+        <v>187.12</v>
+      </c>
+      <c r="T51" t="s">
+        <v>173</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <v>0.79</v>
+      </c>
+      <c r="W51">
+        <v>45.8</v>
+      </c>
+      <c r="X51">
+        <v>197.9</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z51">
+        <v>4</v>
+      </c>
+      <c r="AA51">
+        <v>320000</v>
+      </c>
+      <c r="AB51">
+        <v>58500</v>
+      </c>
+      <c r="AC51">
+        <v>261500</v>
+      </c>
+      <c r="AD51">
+        <v>1</v>
+      </c>
+      <c r="AE51">
+        <v>9</v>
+      </c>
+      <c r="AF51">
+        <v>11</v>
+      </c>
+      <c r="AG51" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT51" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU51" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV51" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX51" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ51" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB51" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC51" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE51" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF51" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG51" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:62">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52">
+        <v>153.1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52">
+        <v>22</v>
+      </c>
+      <c r="G52">
+        <v>162.2</v>
+      </c>
+      <c r="J52" t="b">
+        <v>1</v>
+      </c>
+      <c r="K52" t="b">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>159.78</v>
+      </c>
+      <c r="O52" t="s">
+        <v>173</v>
+      </c>
+      <c r="P52">
+        <v>3</v>
+      </c>
+      <c r="S52">
+        <v>187.12</v>
+      </c>
+      <c r="T52" t="s">
+        <v>173</v>
+      </c>
+      <c r="U52">
+        <v>2</v>
+      </c>
+      <c r="X52">
+        <v>197.9</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z52">
+        <v>4</v>
+      </c>
+      <c r="AA52">
+        <v>320000</v>
+      </c>
+      <c r="AB52">
+        <v>65000</v>
+      </c>
+      <c r="AC52">
+        <v>255000</v>
+      </c>
+      <c r="AD52">
+        <v>1</v>
+      </c>
+      <c r="AE52">
+        <v>9</v>
+      </c>
+      <c r="AF52">
+        <v>11</v>
+      </c>
+      <c r="AG52" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT52" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU52" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV52" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX52" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ52" t="s">
+        <v>191</v>
+      </c>
+      <c r="BA52" t="s">
+        <v>176</v>
+      </c>
+      <c r="BB52" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC52" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD52" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE52" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF52" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG52" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="53" spans="1:62">
+      <c r="A53" t="s">
+        <v>113</v>
+      </c>
+      <c r="B53">
+        <v>159.78</v>
+      </c>
+      <c r="C53" t="s">
+        <v>131</v>
+      </c>
+      <c r="D53">
+        <v>20</v>
+      </c>
+      <c r="G53">
+        <v>162.2</v>
+      </c>
+      <c r="J53" t="b">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0.54</v>
+      </c>
+      <c r="M53">
+        <v>23.16</v>
+      </c>
+      <c r="N53">
+        <v>182.94</v>
+      </c>
+      <c r="O53" t="s">
+        <v>173</v>
+      </c>
+      <c r="P53">
+        <v>2</v>
+      </c>
+      <c r="S53">
+        <v>187.12</v>
+      </c>
+      <c r="T53" t="s">
+        <v>173</v>
+      </c>
+      <c r="U53">
+        <v>2</v>
+      </c>
+      <c r="X53">
+        <v>197.9</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z53">
+        <v>4</v>
+      </c>
+      <c r="AA53">
+        <v>338000</v>
+      </c>
+      <c r="AB53">
+        <v>65000</v>
+      </c>
+      <c r="AC53">
+        <v>273000</v>
+      </c>
+      <c r="AD53">
+        <v>1</v>
+      </c>
+      <c r="AE53">
+        <v>8</v>
+      </c>
+      <c r="AF53">
+        <v>11</v>
+      </c>
+      <c r="AG53" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT53" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU53" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV53" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX53" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ53" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB53" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC53" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD53" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE53" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF53" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG53" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:62">
+      <c r="A54" t="s">
+        <v>114</v>
+      </c>
+      <c r="B54">
+        <v>162.2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54">
+        <v>27</v>
+      </c>
+      <c r="E54">
+        <v>0.12</v>
+      </c>
+      <c r="F54">
+        <v>3.2</v>
+      </c>
+      <c r="G54">
+        <v>165.4</v>
+      </c>
+      <c r="H54">
+        <v>0.15</v>
+      </c>
+      <c r="I54" t="s">
+        <v>170</v>
+      </c>
+      <c r="J54" t="b">
+        <v>1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>182.94</v>
+      </c>
+      <c r="O54" t="s">
+        <v>173</v>
+      </c>
+      <c r="P54">
+        <v>2</v>
+      </c>
+      <c r="S54">
+        <v>187.12</v>
+      </c>
+      <c r="T54" t="s">
+        <v>173</v>
+      </c>
+      <c r="U54">
+        <v>2</v>
+      </c>
+      <c r="X54">
+        <v>197.9</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z54">
+        <v>5</v>
+      </c>
+      <c r="AA54">
+        <v>338000</v>
+      </c>
+      <c r="AB54">
+        <v>65000</v>
+      </c>
+      <c r="AC54">
+        <v>273000</v>
+      </c>
+      <c r="AD54">
+        <v>1</v>
+      </c>
+      <c r="AE54">
+        <v>9</v>
+      </c>
+      <c r="AF54">
+        <v>11</v>
+      </c>
+      <c r="AG54" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT54" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU54" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV54" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX54" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ54" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB54" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC54" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD54" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE54" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF54" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG54" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH54" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:62">
+      <c r="A55" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55">
+        <v>165.4</v>
+      </c>
+      <c r="C55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D55">
+        <v>28</v>
+      </c>
+      <c r="E55">
+        <v>0.99</v>
+      </c>
+      <c r="F55">
+        <v>11.9</v>
+      </c>
+      <c r="G55">
+        <v>177.3</v>
+      </c>
+      <c r="H55">
+        <v>0.37</v>
+      </c>
+      <c r="I55" t="s">
+        <v>171</v>
+      </c>
+      <c r="J55" t="b">
+        <v>1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>182.94</v>
+      </c>
+      <c r="O55" t="s">
+        <v>173</v>
+      </c>
+      <c r="P55">
+        <v>3</v>
+      </c>
+      <c r="S55">
+        <v>187.12</v>
+      </c>
+      <c r="T55" t="s">
+        <v>173</v>
+      </c>
+      <c r="U55">
+        <v>2</v>
+      </c>
+      <c r="X55">
+        <v>197.9</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z55">
+        <v>5</v>
+      </c>
+      <c r="AA55">
+        <v>338000</v>
+      </c>
+      <c r="AB55">
+        <v>65000</v>
+      </c>
+      <c r="AC55">
+        <v>273000</v>
+      </c>
+      <c r="AD55">
+        <v>1</v>
+      </c>
+      <c r="AE55">
+        <v>10</v>
+      </c>
+      <c r="AF55">
+        <v>11</v>
+      </c>
+      <c r="AG55" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT55" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU55" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV55" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX55" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ55" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB55" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC55" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD55" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE55" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF55" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG55" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH55" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI55" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:62">
+      <c r="A56" t="s">
+        <v>116</v>
+      </c>
+      <c r="B56">
+        <v>167.8</v>
+      </c>
+      <c r="C56" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56">
+        <v>24</v>
+      </c>
+      <c r="G56">
+        <v>177.3</v>
+      </c>
+      <c r="J56" t="b">
+        <v>1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>182.94</v>
+      </c>
+      <c r="O56" t="s">
+        <v>173</v>
+      </c>
+      <c r="P56">
+        <v>3</v>
+      </c>
+      <c r="S56">
+        <v>187.12</v>
+      </c>
+      <c r="T56" t="s">
+        <v>173</v>
+      </c>
+      <c r="U56">
+        <v>2</v>
+      </c>
+      <c r="X56">
+        <v>197.9</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z56">
+        <v>5</v>
+      </c>
+      <c r="AA56">
+        <v>338000</v>
+      </c>
+      <c r="AB56">
+        <v>71500</v>
+      </c>
+      <c r="AC56">
+        <v>266500</v>
+      </c>
+      <c r="AD56">
+        <v>1</v>
+      </c>
+      <c r="AE56">
+        <v>10</v>
+      </c>
+      <c r="AF56">
+        <v>11</v>
+      </c>
+      <c r="AG56" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT56" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU56" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV56" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX56" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ56" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB56" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC56" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD56" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE56" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF56" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="57" spans="1:62">
+      <c r="A57" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57">
+        <v>170.1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57">
+        <v>25</v>
+      </c>
+      <c r="G57">
+        <v>177.3</v>
+      </c>
+      <c r="J57" t="b">
+        <v>1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>182.94</v>
+      </c>
+      <c r="O57" t="s">
+        <v>173</v>
+      </c>
+      <c r="P57">
+        <v>3</v>
+      </c>
+      <c r="S57">
+        <v>187.12</v>
+      </c>
+      <c r="T57" t="s">
+        <v>173</v>
+      </c>
+      <c r="U57">
+        <v>2</v>
+      </c>
+      <c r="X57">
+        <v>197.9</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z57">
+        <v>5</v>
+      </c>
+      <c r="AA57">
+        <v>338000</v>
+      </c>
+      <c r="AB57">
+        <v>78000</v>
+      </c>
+      <c r="AC57">
+        <v>260000</v>
+      </c>
+      <c r="AD57">
+        <v>1</v>
+      </c>
+      <c r="AE57">
+        <v>10</v>
+      </c>
+      <c r="AF57">
+        <v>11</v>
+      </c>
+      <c r="AG57" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT57" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU57" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV57" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX57" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ57" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB57" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC57" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD57" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE57" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF57" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG57" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH57" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI57" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="58" spans="1:62">
+      <c r="A58" t="s">
+        <v>118</v>
+      </c>
+      <c r="B58">
+        <v>177.3</v>
+      </c>
+      <c r="C58" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58">
+        <v>29</v>
+      </c>
+      <c r="E58">
+        <v>0.79</v>
+      </c>
+      <c r="F58">
+        <v>9.9</v>
+      </c>
+      <c r="G58">
+        <v>187.2</v>
+      </c>
+      <c r="H58">
+        <v>0.7</v>
+      </c>
+      <c r="I58" t="s">
+        <v>169</v>
+      </c>
+      <c r="J58" t="b">
+        <v>1</v>
+      </c>
+      <c r="K58" t="b">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>182.94</v>
+      </c>
+      <c r="O58" t="s">
+        <v>173</v>
+      </c>
+      <c r="P58">
+        <v>3</v>
+      </c>
+      <c r="S58">
+        <v>187.12</v>
+      </c>
+      <c r="T58" t="s">
+        <v>173</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="X58">
+        <v>197.9</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z58">
+        <v>5</v>
+      </c>
+      <c r="AA58">
+        <v>338000</v>
+      </c>
+      <c r="AB58">
+        <v>78000</v>
+      </c>
+      <c r="AC58">
+        <v>260000</v>
+      </c>
+      <c r="AD58">
+        <v>1</v>
+      </c>
+      <c r="AE58">
+        <v>11</v>
+      </c>
+      <c r="AF58">
+        <v>11</v>
+      </c>
+      <c r="AG58" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT58" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU58" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV58" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC58" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD58" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE58" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF58" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG58" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH58" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI58" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ58" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="59" spans="1:62">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59">
+        <v>180.7</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59">
+        <v>26</v>
+      </c>
+      <c r="G59">
+        <v>187.2</v>
+      </c>
+      <c r="J59" t="b">
+        <v>1</v>
+      </c>
+      <c r="K59" t="b">
+        <v>0</v>
+      </c>
+      <c r="N59">
+        <v>182.94</v>
+      </c>
+      <c r="O59" t="s">
+        <v>173</v>
+      </c>
+      <c r="P59">
+        <v>3</v>
+      </c>
+      <c r="S59">
+        <v>187.12</v>
+      </c>
+      <c r="T59" t="s">
+        <v>173</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="X59">
+        <v>197.9</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z59">
+        <v>5</v>
+      </c>
+      <c r="AA59">
+        <v>338000</v>
+      </c>
+      <c r="AB59">
+        <v>84500</v>
+      </c>
+      <c r="AC59">
+        <v>253500</v>
+      </c>
+      <c r="AD59">
+        <v>1</v>
+      </c>
+      <c r="AE59">
+        <v>11</v>
+      </c>
+      <c r="AF59">
+        <v>11</v>
+      </c>
+      <c r="AG59" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT59" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU59" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV59" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX59" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ59" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB59" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC59" t="s">
+        <v>194</v>
+      </c>
+      <c r="BD59" t="s">
+        <v>176</v>
+      </c>
+      <c r="BE59" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF59" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG59" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH59" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI59" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ59" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="60" spans="1:62">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60">
+        <v>182.94</v>
+      </c>
+      <c r="C60" t="s">
+        <v>131</v>
+      </c>
+      <c r="D60">
+        <v>23</v>
+      </c>
+      <c r="G60">
+        <v>187.2</v>
+      </c>
+      <c r="J60" t="b">
+        <v>1</v>
+      </c>
+      <c r="K60" t="b">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0.1</v>
+      </c>
+      <c r="M60">
+        <v>21.4</v>
+      </c>
+      <c r="N60">
+        <v>204.34</v>
+      </c>
+      <c r="O60" t="s">
+        <v>173</v>
+      </c>
+      <c r="P60">
+        <v>2</v>
+      </c>
+      <c r="S60">
+        <v>187.12</v>
+      </c>
+      <c r="T60" t="s">
+        <v>173</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="X60">
+        <v>197.9</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z60">
+        <v>5</v>
+      </c>
+      <c r="AA60">
+        <v>356000</v>
+      </c>
+      <c r="AB60">
+        <v>84500</v>
+      </c>
+      <c r="AC60">
+        <v>271500</v>
+      </c>
+      <c r="AD60">
+        <v>1</v>
+      </c>
+      <c r="AE60">
+        <v>10</v>
+      </c>
+      <c r="AF60">
+        <v>11</v>
+      </c>
+      <c r="AG60" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT60" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU60" t="s">
+        <v>187</v>
+      </c>
+      <c r="AV60" t="s">
+        <v>174</v>
+      </c>
+      <c r="AX60" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ60" t="s">
+        <v>191</v>
+      </c>
+      <c r="BB60" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC60" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE60" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF60" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG60" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH60" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI60" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ60" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="61" spans="1:62">
+      <c r="A61" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61">
+        <v>187.12</v>
+      </c>
+      <c r="C61" t="s">
+        <v>129</v>
+      </c>
+      <c r="D61">
+        <v>15</v>
+      </c>
+      <c r="G61">
+        <v>187.2</v>
+      </c>
+      <c r="J61" t="b">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>204.34</v>
+      </c>
+      <c r="O61" t="s">
+        <v>173</v>
+      </c>
+      <c r="P61">
+        <v>2</v>
+      </c>
+      <c r="Q61">
+        <v>0.21</v>
+      </c>
+      <c r="R61">
+        <v>25.36</v>
+      </c>
+      <c r="S61">
+        <v>212.48</v>
+      </c>
+      <c r="T61" t="s">
+        <v>173</v>
+      </c>
+      <c r="U61">
+        <v>2</v>
+      </c>
+      <c r="X61">
+        <v>197.9</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>173</v>
+      </c>
+      <c r="Z61">
+        <v>5</v>
+      </c>
+      <c r="AA61">
+        <v>374000</v>
+      </c>
+      <c r="AB61">
+        <v>84500</v>
+      </c>
+      <c r="AC61">
+        <v>289500</v>
+      </c>
+      <c r="AD61">
+        <v>1</v>
+      </c>
+      <c r="AE61">
+        <v>9</v>
+      </c>
+      <c r="AF61">
+        <v>11</v>
+      </c>
+      <c r="AG61" t="b">
+        <v>1</v>
+      </c>
+      <c r="AT61" t="s">
+        <v>175</v>
+      </c>
+      <c r="AU61" t="s">
+        <v>187</v>
+      </c>
+      <c r="AX61" t="s">
+        <v>189</v>
+      </c>
+      <c r="AZ61" t="s">
+        <v>174</v>
+      </c>
+      <c r="BB61" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC61" t="s">
+        <v>194</v>
+      </c>
+      <c r="BE61" t="s">
+        <v>176</v>
+      </c>
+      <c r="BF61" t="s">
+        <v>197</v>
+      </c>
+      <c r="BG61" t="s">
+        <v>198</v>
+      </c>
+      <c r="BH61" t="s">
+        <v>199</v>
+      </c>
+      <c r="BI61" t="s">
+        <v>200</v>
+      </c>
+      <c r="BJ61" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="62" spans="1:62">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62">
+        <v>966.5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>133</v>
+      </c>
+      <c r="D62">
         <v>70</v>
       </c>
-      <c r="AM11" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12">
-        <v>883.92</v>
-      </c>
-      <c r="C12" t="s">
-        <v>57</v>
-      </c>
-      <c r="D12">
-        <v>68</v>
-      </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
-      <c r="K12" t="b">
-        <v>1</v>
-      </c>
-      <c r="O12" t="s">
-        <v>64</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>883.92</v>
-      </c>
-      <c r="T12" t="s">
-        <v>64</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>64</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>1516000</v>
-      </c>
-      <c r="AB12">
-        <v>344500</v>
-      </c>
-      <c r="AC12">
-        <v>1171500</v>
-      </c>
-      <c r="AD12">
-        <v>1</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>23</v>
-      </c>
-      <c r="AG12" t="b">
+      <c r="J62" t="b">
+        <v>0</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="O62" t="s">
+        <v>172</v>
+      </c>
+      <c r="P62">
+        <v>0</v>
+      </c>
+      <c r="T62" t="s">
+        <v>172</v>
+      </c>
+      <c r="U62">
+        <v>0</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z62">
+        <v>0</v>
+      </c>
+      <c r="AA62">
+        <v>1686000</v>
+      </c>
+      <c r="AB62">
+        <v>370500</v>
+      </c>
+      <c r="AC62">
+        <v>1315500</v>
+      </c>
+      <c r="AD62">
+        <v>1</v>
+      </c>
+      <c r="AE62">
+        <v>0</v>
+      </c>
+      <c r="AF62">
+        <v>22</v>
+      </c>
+      <c r="AG62" t="b">
         <v>1</v>
       </c>
     </row>
